--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>qwerty6@test.ru</t>
+    <t>qwerty7@test.ru</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>qwerty7@test.ru</t>
+    <t>qwerty11@test.ru</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>qwerty11@test.ru</t>
+    <t>qwerty15@test.ru</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>qwerty15@test.ru</t>
+    <t>qwerty18@test.ru</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>qwerty18@test.ru</t>
+    <t>qwerty17@test.ru</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>qwerty17@test.ru</t>
+    <t>qwerty21@test.ru</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>qwerty21@test.ru</t>
+    <t>qwerty22@test.ru</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>qwerty22@test.ru</t>
+    <t>qwerty27@test.ru</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>qwerty27@test.ru</t>
+    <t>werty29@test.ru</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>werty29@test.ru</t>
+    <t>qwerty32@test.ru</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>qwerty32@test.ru</t>
+    <t>qwerty33@test.ru</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/ExcelExample.xlsx
+++ b/src/main/resources/ExcelExample.xlsx
@@ -84,7 +84,7 @@
     <t>Ocassion av. 12-3</t>
   </si>
   <si>
-    <t>qwerty33@test.ru</t>
+    <t>qwerty10@test.ru</t>
   </si>
 </sst>
 </file>
